--- a/MAK/Figures/20230529/Calc.xlsx
+++ b/MAK/Figures/20230529/Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\MAK FIgures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Atomionics\MAK\Figures\20230529\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D435B5A1-72E2-4DDF-9814-512D4C423E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B194B8D-EB8A-4475-9495-EA9F11B7A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Chapter No. 1 Outline-01</t>
   </si>
@@ -112,14 +112,40 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Paymets</t>
+  </si>
+  <si>
+    <t>Figures</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Fig. Count</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,16 +504,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1004,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>8</v>
       </c>
@@ -1015,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>9</v>
       </c>
@@ -1026,13 +1053,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>SUM(D2:D50)</f>
         <v>46</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <f>B57*2.5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <f>B58*2.5</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <f>B59</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <f>SUM(C57:C61)</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MAK/Figures/20230529/Calc.xlsx
+++ b/MAK/Figures/20230529/Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Atomionics\MAK\Figures\20230529\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B194B8D-EB8A-4475-9495-EA9F11B7A0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC603639-F8EF-46A5-B788-30AD0C92C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Chapter No. 1 Outline-01</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Figure he claimed extra 9</t>
+  </si>
+  <si>
+    <t>30.05.2023</t>
+  </si>
+  <si>
+    <t>26.05.2023</t>
+  </si>
+  <si>
+    <t>23.05.2023</t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1098,9 @@
         <f>B57*2.5</f>
         <v>25</v>
       </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1098,6 +1113,9 @@
         <f>B58*2.5</f>
         <v>90</v>
       </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1110,6 +1128,24 @@
         <f>B59</f>
         <v>5</v>
       </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <f>B60*2.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -1117,7 +1153,7 @@
       </c>
       <c r="C62">
         <f>SUM(C57:C61)</f>
-        <v>120</v>
+        <v>142.5</v>
       </c>
     </row>
   </sheetData>
